--- a/GestorReceitas/Dezembro/relatorioMensal_dezembro.xlsx
+++ b/GestorReceitas/Dezembro/relatorioMensal_dezembro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pessoal\AssociacaodePais\School\GestorReceitas\Dezembro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C77F88D-E6DC-457F-B421-F5F4416A12DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D20CE292-A8F0-4F57-8A8A-76C6B3887D45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="relatorioMensal" sheetId="1" r:id="rId1"/>
@@ -1628,15 +1628,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="146">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
+  <dxfs count="145">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -3010,8 +3002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="N39" sqref="N39"/>
+    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="O97" sqref="O97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4849,7 +4841,7 @@
       <c r="R34" s="4"/>
     </row>
     <row r="35" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="12" t="s">
+      <c r="A35" s="3" t="s">
         <v>132</v>
       </c>
       <c r="B35" s="4" t="s">
@@ -5002,7 +4994,7 @@
       <c r="R37" s="4"/>
     </row>
     <row r="38" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="12" t="s">
+      <c r="A38" s="3" t="s">
         <v>141</v>
       </c>
       <c r="B38" s="4" t="s">
@@ -5683,7 +5675,7 @@
       </c>
     </row>
     <row r="51" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="12" t="s">
+      <c r="A51" s="3" t="s">
         <v>183</v>
       </c>
       <c r="B51" s="4" t="s">
@@ -5718,15 +5710,15 @@
         <v>0</v>
       </c>
       <c r="M51" s="5">
-        <f>90-50</f>
-        <v>40</v>
+        <f>90-50+25</f>
+        <v>65</v>
       </c>
       <c r="N51" s="7">
         <v>0</v>
       </c>
       <c r="O51" s="7">
         <f t="shared" si="0"/>
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="P51" s="4"/>
       <c r="Q51" s="4" t="s">
@@ -5788,7 +5780,7 @@
       <c r="R52" s="4"/>
     </row>
     <row r="53" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="12" t="s">
+      <c r="A53" s="3" t="s">
         <v>189</v>
       </c>
       <c r="B53" s="4" t="s">
@@ -5823,15 +5815,15 @@
         <v>0</v>
       </c>
       <c r="M53" s="5">
-        <f>15-15</f>
-        <v>0</v>
+        <f>15-15+50</f>
+        <v>50</v>
       </c>
       <c r="N53" s="7">
         <v>0</v>
       </c>
       <c r="O53" s="7">
         <f t="shared" si="0"/>
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="P53" s="4"/>
       <c r="Q53" s="4" t="s">
@@ -6275,7 +6267,7 @@
       </c>
     </row>
     <row r="62" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="12" t="s">
+      <c r="A62" s="3" t="s">
         <v>220</v>
       </c>
       <c r="B62" s="4" t="s">
@@ -6308,14 +6300,14 @@
         <v>0</v>
       </c>
       <c r="M62" s="5">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="N62" s="7">
         <v>4</v>
       </c>
       <c r="O62" s="7">
         <f t="shared" si="0"/>
-        <v>-7.5</v>
+        <v>0</v>
       </c>
       <c r="P62" s="4"/>
       <c r="Q62" s="4" t="s">
@@ -6920,7 +6912,7 @@
       </c>
     </row>
     <row r="74" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="12" t="s">
+      <c r="A74" s="3" t="s">
         <v>257</v>
       </c>
       <c r="B74" s="4" t="s">
@@ -6955,14 +6947,15 @@
         <v>0</v>
       </c>
       <c r="M74" s="5">
-        <v>25</v>
+        <f>25+45-37.5</f>
+        <v>32.5</v>
       </c>
       <c r="N74" s="7">
-        <v>-37.5</v>
+        <v>0</v>
       </c>
       <c r="O74" s="7">
         <f t="shared" si="0"/>
-        <v>-45</v>
+        <v>0</v>
       </c>
       <c r="P74" s="4"/>
       <c r="Q74" s="4" t="s">
@@ -6973,7 +6966,7 @@
       </c>
     </row>
     <row r="75" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="12" t="s">
+      <c r="A75" s="3" t="s">
         <v>261</v>
       </c>
       <c r="B75" s="4" t="s">
@@ -7006,15 +6999,14 @@
         <v>0</v>
       </c>
       <c r="M75" s="5">
-        <f>15-15</f>
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="N75" s="7">
         <v>0</v>
       </c>
       <c r="O75" s="7">
         <f t="shared" si="0"/>
-        <v>-7.5</v>
+        <v>0</v>
       </c>
       <c r="P75" s="4"/>
       <c r="Q75" s="4" t="s">
@@ -7408,7 +7400,7 @@
       </c>
     </row>
     <row r="83" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="12" t="s">
+      <c r="A83" s="3" t="s">
         <v>285</v>
       </c>
       <c r="B83" s="4" t="s">
@@ -7443,15 +7435,15 @@
         <v>0</v>
       </c>
       <c r="M83" s="5">
-        <f>185-45-25</f>
-        <v>115</v>
+        <f>185-45-25+15</f>
+        <v>130</v>
       </c>
       <c r="N83" s="7">
         <v>0</v>
       </c>
       <c r="O83" s="7">
         <f t="shared" si="0"/>
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="P83" s="4"/>
       <c r="Q83" s="4" t="s">
@@ -7895,7 +7887,7 @@
       </c>
     </row>
     <row r="92" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="12" t="s">
+      <c r="A92" s="3" t="s">
         <v>310</v>
       </c>
       <c r="B92" s="4" t="s">
@@ -7925,7 +7917,7 @@
       </c>
       <c r="K92" s="5"/>
       <c r="L92" s="5">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="M92" s="5">
         <v>0</v>
@@ -7935,7 +7927,7 @@
       </c>
       <c r="O92" s="7">
         <f t="shared" si="0"/>
-        <v>-7.5</v>
+        <v>0</v>
       </c>
       <c r="P92" s="4"/>
       <c r="Q92" s="4" t="s">
@@ -7997,7 +7989,7 @@
       <c r="R93" s="4"/>
     </row>
     <row r="94" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="12" t="s">
+      <c r="A94" s="3" t="s">
         <v>316</v>
       </c>
       <c r="B94" s="4" t="s">
@@ -8030,15 +8022,15 @@
         <v>0</v>
       </c>
       <c r="M94" s="5">
-        <f>11.5-4</f>
-        <v>7.5</v>
+        <f>11.5-4+8</f>
+        <v>15.5</v>
       </c>
       <c r="N94" s="7">
         <v>0</v>
       </c>
       <c r="O94" s="7">
         <f t="shared" si="0"/>
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="P94" s="4"/>
       <c r="Q94" s="4" t="s">
@@ -8184,7 +8176,7 @@
         <v>0</v>
       </c>
       <c r="J97" s="6">
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="K97" s="5"/>
       <c r="L97" s="5">
@@ -8194,11 +8186,11 @@
         <v>0</v>
       </c>
       <c r="N97" s="7">
-        <v>-23</v>
+        <v>-15.5</v>
       </c>
       <c r="O97" s="7">
         <f t="shared" si="0"/>
-        <v>-30.5</v>
+        <v>-19.25</v>
       </c>
       <c r="P97" s="4"/>
       <c r="Q97" s="4" t="s">
@@ -8315,7 +8307,7 @@
       <c r="R99" s="4"/>
     </row>
     <row r="100" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="12" t="s">
+      <c r="A100" s="3" t="s">
         <v>335</v>
       </c>
       <c r="B100" s="4" t="s">
@@ -8345,17 +8337,18 @@
       </c>
       <c r="K100" s="5"/>
       <c r="L100" s="5">
-        <v>0</v>
+        <f>22.5-15</f>
+        <v>7.5</v>
       </c>
       <c r="M100" s="5">
         <v>0</v>
       </c>
       <c r="N100" s="7">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="O100" s="7">
         <f t="shared" si="0"/>
-        <v>-22.5</v>
+        <v>0</v>
       </c>
       <c r="P100" s="4"/>
       <c r="Q100" s="4" t="s">
@@ -8682,7 +8675,7 @@
       <c r="R106" s="4"/>
     </row>
     <row r="107" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="12" t="s">
+      <c r="A107" s="3" t="s">
         <v>357</v>
       </c>
       <c r="B107" s="4" t="s">
@@ -8717,14 +8710,15 @@
         <v>0</v>
       </c>
       <c r="M107" s="5">
-        <v>81.5</v>
+        <f>81.5+20</f>
+        <v>101.5</v>
       </c>
       <c r="N107" s="7">
         <v>0</v>
       </c>
       <c r="O107" s="7">
         <f t="shared" si="0"/>
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="P107" s="4"/>
       <c r="Q107" s="4" t="s">
@@ -8841,7 +8835,7 @@
       <c r="R109" s="4"/>
     </row>
     <row r="110" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="12" t="s">
+      <c r="A110" s="3" t="s">
         <v>365</v>
       </c>
       <c r="B110" s="4" t="s">
@@ -8876,15 +8870,14 @@
         <v>0</v>
       </c>
       <c r="M110" s="5">
-        <f>132-1-73-25-3-30</f>
-        <v>0</v>
+        <v>151.5</v>
       </c>
       <c r="N110" s="7">
         <v>0</v>
       </c>
       <c r="O110" s="7">
         <f t="shared" si="0"/>
-        <v>-151.5</v>
+        <v>0</v>
       </c>
       <c r="P110" s="4"/>
       <c r="Q110" s="4" t="s">
@@ -8898,7 +8891,7 @@
       </c>
     </row>
     <row r="111" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="12" t="s">
+      <c r="A111" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B111" s="4" t="s">
@@ -8931,15 +8924,14 @@
         <v>0</v>
       </c>
       <c r="M111" s="5">
-        <f>62.5-25-37.5</f>
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="N111" s="7">
         <v>0</v>
       </c>
       <c r="O111" s="7">
         <f t="shared" si="0"/>
-        <v>-7.5</v>
+        <v>0</v>
       </c>
       <c r="P111" s="4"/>
       <c r="Q111" s="4" t="s">
@@ -9004,7 +8996,7 @@
       <c r="R112" s="4"/>
     </row>
     <row r="113" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="12" t="s">
+      <c r="A113" s="3" t="s">
         <v>375</v>
       </c>
       <c r="B113" s="4" t="s">
@@ -9037,14 +9029,15 @@
         <v>0</v>
       </c>
       <c r="M113" s="5">
-        <v>0</v>
+        <f>67.5-45</f>
+        <v>22.5</v>
       </c>
       <c r="N113" s="7">
-        <v>-45</v>
+        <v>0</v>
       </c>
       <c r="O113" s="7">
         <f t="shared" si="0"/>
-        <v>-67.5</v>
+        <v>0</v>
       </c>
       <c r="P113" s="4"/>
       <c r="Q113" s="4" t="s">
@@ -9107,7 +9100,7 @@
       <c r="R114" s="4"/>
     </row>
     <row r="115" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="12" t="s">
+      <c r="A115" s="3" t="s">
         <v>381</v>
       </c>
       <c r="B115" s="4" t="s">
@@ -9139,14 +9132,14 @@
         <v>0</v>
       </c>
       <c r="M115" s="5">
-        <v>0</v>
+        <v>32.5</v>
       </c>
       <c r="N115" s="7">
         <v>0</v>
       </c>
       <c r="O115" s="7">
         <f t="shared" si="0"/>
-        <v>-32.5</v>
+        <v>0</v>
       </c>
       <c r="P115" s="4"/>
       <c r="Q115" s="4" t="s">
@@ -9260,7 +9253,7 @@
       <c r="R117" s="4"/>
     </row>
     <row r="118" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="12" t="s">
+      <c r="A118" s="3" t="s">
         <v>392</v>
       </c>
       <c r="B118" s="4" t="s">
@@ -9288,17 +9281,18 @@
       </c>
       <c r="K118" s="5"/>
       <c r="L118" s="5">
-        <v>0</v>
+        <f>45-37.5</f>
+        <v>7.5</v>
       </c>
       <c r="M118" s="5">
         <v>0</v>
       </c>
       <c r="N118" s="7">
-        <v>-37.5</v>
+        <v>0</v>
       </c>
       <c r="O118" s="7">
         <f t="shared" si="0"/>
-        <v>-45</v>
+        <v>0</v>
       </c>
       <c r="P118" s="4"/>
       <c r="Q118" s="4" t="s">
@@ -9750,7 +9744,7 @@
       </c>
     </row>
     <row r="127" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="12" t="s">
+      <c r="A127" s="3" t="s">
         <v>419</v>
       </c>
       <c r="B127" s="4" t="s">
@@ -9783,15 +9777,15 @@
         <v>0</v>
       </c>
       <c r="M127" s="5">
-        <f>34.5-12</f>
-        <v>22.5</v>
+        <f>34.5-12+6</f>
+        <v>28.5</v>
       </c>
       <c r="N127" s="7">
         <v>0</v>
       </c>
       <c r="O127" s="7">
         <f t="shared" si="0"/>
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="P127" s="4"/>
       <c r="Q127" s="4" t="s">
@@ -10077,7 +10071,7 @@
       </c>
     </row>
     <row r="133" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="12" t="s">
+      <c r="A133" s="3" t="s">
         <v>439</v>
       </c>
       <c r="B133" s="4" t="s">
@@ -10109,7 +10103,7 @@
       </c>
       <c r="K133" s="5"/>
       <c r="L133" s="5">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="M133" s="5">
         <f>62.5-2.5-15-25-20</f>
@@ -10120,7 +10114,7 @@
       </c>
       <c r="O133" s="7">
         <f t="shared" si="0"/>
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="P133" s="4"/>
       <c r="Q133" s="4" t="s">
@@ -10605,7 +10599,7 @@
       </c>
     </row>
     <row r="143" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="12" t="s">
+      <c r="A143" s="3" t="s">
         <v>466</v>
       </c>
       <c r="B143" s="4" t="s">
@@ -10640,15 +10634,15 @@
         <v>0</v>
       </c>
       <c r="M143" s="5">
-        <f>77.5-7.5-15-15-15</f>
-        <v>25</v>
+        <f>77.5-7.5-15-15-15+7.5</f>
+        <v>32.5</v>
       </c>
       <c r="N143" s="7">
         <v>0</v>
       </c>
       <c r="O143" s="7">
         <f t="shared" si="0"/>
-        <v>-7.5</v>
+        <v>0</v>
       </c>
       <c r="P143" s="4"/>
       <c r="Q143" s="4" t="s">

--- a/GestorReceitas/Dezembro/relatorioMensal_dezembro.xlsx
+++ b/GestorReceitas/Dezembro/relatorioMensal_dezembro.xlsx
@@ -11,14 +11,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="xrKhhTDQkL3lNNxCTVF+IEoPgZPcF+C59mqst1sNPq0="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="19t0jBePKWjNUz5ls9M/gN2q5KkBmGAfXXzHF+EV90I="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="475">
   <si>
     <t>Nome</t>
   </si>
@@ -1561,7 +1561,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1582,28 +1582,14 @@
     <xf borderId="3" fillId="6" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
     <xf borderId="3" fillId="7" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
     <xf borderId="3" fillId="8" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0000FF"/>
-          <bgColor rgb="FF0000FF"/>
-        </patternFill>
-      </fill>
-      <border/>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -1832,18 +1818,17 @@
     <col customWidth="1" min="2" max="2" width="6.71"/>
     <col customWidth="1" min="3" max="3" width="3.43"/>
     <col customWidth="1" min="4" max="4" width="10.57"/>
-    <col customWidth="1" min="5" max="5" width="4.14"/>
-    <col customWidth="1" min="6" max="6" width="4.29"/>
-    <col customWidth="1" min="7" max="7" width="7.57"/>
-    <col customWidth="1" min="8" max="8" width="8.71"/>
-    <col customWidth="1" min="9" max="9" width="8.14"/>
-    <col customWidth="1" min="10" max="10" width="8.71"/>
-    <col customWidth="1" min="11" max="11" width="8.0"/>
-    <col customWidth="1" min="12" max="12" width="8.71"/>
-    <col customWidth="1" min="13" max="13" width="8.43"/>
-    <col customWidth="1" min="14" max="14" width="8.14"/>
+    <col customWidth="1" min="5" max="5" width="6.0"/>
+    <col customWidth="1" min="6" max="6" width="5.0"/>
+    <col customWidth="1" min="7" max="7" width="8.86"/>
+    <col customWidth="1" min="8" max="8" width="9.29"/>
+    <col customWidth="1" min="9" max="10" width="9.86"/>
+    <col customWidth="1" min="11" max="11" width="9.71"/>
+    <col customWidth="1" min="12" max="12" width="10.43"/>
+    <col customWidth="1" min="13" max="13" width="10.0"/>
+    <col customWidth="1" min="14" max="14" width="11.43"/>
     <col customWidth="1" min="15" max="15" width="9.71"/>
-    <col customWidth="1" min="16" max="16" width="8.57"/>
+    <col customWidth="1" min="16" max="16" width="10.0"/>
     <col customWidth="1" min="17" max="17" width="40.29"/>
     <col customWidth="1" min="18" max="18" width="45.43"/>
     <col customWidth="1" min="19" max="19" width="18.0"/>
@@ -1916,7 +1901,7 @@
       <c r="Y1" s="3"/>
       <c r="Z1" s="3"/>
     </row>
-    <row r="2" ht="15.0" hidden="1" customHeight="1">
+    <row r="2" ht="15.0" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>18</v>
       </c>
@@ -1976,7 +1961,7 @@
       <c r="Y2" s="3"/>
       <c r="Z2" s="3"/>
     </row>
-    <row r="3" ht="15.0" hidden="1" customHeight="1">
+    <row r="3" ht="15.0" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>23</v>
       </c>
@@ -2035,7 +2020,7 @@
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
     </row>
-    <row r="4" ht="15.0" hidden="1" customHeight="1">
+    <row r="4" ht="15.0" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>28</v>
       </c>
@@ -2094,7 +2079,7 @@
       <c r="Y4" s="3"/>
       <c r="Z4" s="3"/>
     </row>
-    <row r="5" ht="15.0" hidden="1" customHeight="1">
+    <row r="5" ht="15.0" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>32</v>
       </c>
@@ -2158,7 +2143,7 @@
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
     </row>
-    <row r="6" ht="15.0" hidden="1" customHeight="1">
+    <row r="6" ht="15.0" customHeight="1">
       <c r="A6" s="4" t="s">
         <v>38</v>
       </c>
@@ -2222,7 +2207,7 @@
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
     </row>
-    <row r="7" ht="15.0" hidden="1" customHeight="1">
+    <row r="7" ht="15.0" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>41</v>
       </c>
@@ -2282,7 +2267,7 @@
       <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
     </row>
-    <row r="8" ht="15.0" hidden="1" customHeight="1">
+    <row r="8" ht="15.0" customHeight="1">
       <c r="A8" s="8" t="s">
         <v>44</v>
       </c>
@@ -2342,7 +2327,7 @@
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
     </row>
-    <row r="9" ht="15.0" hidden="1" customHeight="1">
+    <row r="9" ht="15.0" customHeight="1">
       <c r="A9" s="8" t="s">
         <v>49</v>
       </c>
@@ -2402,7 +2387,7 @@
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
     </row>
-    <row r="10" ht="15.0" hidden="1" customHeight="1">
+    <row r="10" ht="15.0" customHeight="1">
       <c r="A10" s="4" t="s">
         <v>52</v>
       </c>
@@ -2463,7 +2448,7 @@
       <c r="Y10" s="3"/>
       <c r="Z10" s="3"/>
     </row>
-    <row r="11" ht="15.0" hidden="1" customHeight="1">
+    <row r="11" ht="15.0" customHeight="1">
       <c r="A11" s="4" t="s">
         <v>56</v>
       </c>
@@ -2524,7 +2509,7 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
     </row>
-    <row r="12" ht="15.0" hidden="1" customHeight="1">
+    <row r="12" ht="15.0" customHeight="1">
       <c r="A12" s="8" t="s">
         <v>61</v>
       </c>
@@ -2583,7 +2568,7 @@
       <c r="Y12" s="3"/>
       <c r="Z12" s="3"/>
     </row>
-    <row r="13" ht="15.0" hidden="1" customHeight="1">
+    <row r="13" ht="15.0" customHeight="1">
       <c r="A13" s="4" t="s">
         <v>64</v>
       </c>
@@ -2647,7 +2632,7 @@
       <c r="Y13" s="3"/>
       <c r="Z13" s="3"/>
     </row>
-    <row r="14" ht="15.0" hidden="1" customHeight="1">
+    <row r="14" ht="15.0" customHeight="1">
       <c r="A14" s="4" t="s">
         <v>68</v>
       </c>
@@ -2707,7 +2692,7 @@
       <c r="Y14" s="3"/>
       <c r="Z14" s="3"/>
     </row>
-    <row r="15" ht="15.0" hidden="1" customHeight="1">
+    <row r="15" ht="15.0" customHeight="1">
       <c r="A15" s="4" t="s">
         <v>70</v>
       </c>
@@ -2769,7 +2754,7 @@
       <c r="Y15" s="3"/>
       <c r="Z15" s="3"/>
     </row>
-    <row r="16" ht="15.0" hidden="1" customHeight="1">
+    <row r="16" ht="15.0" customHeight="1">
       <c r="A16" s="4" t="s">
         <v>73</v>
       </c>
@@ -2835,7 +2820,7 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
     </row>
-    <row r="17" ht="15.0" hidden="1" customHeight="1">
+    <row r="17" ht="15.0" customHeight="1">
       <c r="A17" s="8" t="s">
         <v>77</v>
       </c>
@@ -2892,7 +2877,7 @@
       <c r="Y17" s="3"/>
       <c r="Z17" s="3"/>
     </row>
-    <row r="18" ht="15.0" hidden="1" customHeight="1">
+    <row r="18" ht="15.0" customHeight="1">
       <c r="A18" s="8" t="s">
         <v>79</v>
       </c>
@@ -2954,7 +2939,7 @@
       <c r="Y18" s="3"/>
       <c r="Z18" s="3"/>
     </row>
-    <row r="19" ht="15.0" hidden="1" customHeight="1">
+    <row r="19" ht="15.0" customHeight="1">
       <c r="A19" s="4" t="s">
         <v>82</v>
       </c>
@@ -3015,7 +3000,7 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
     </row>
-    <row r="20" ht="15.0" hidden="1" customHeight="1">
+    <row r="20" ht="15.0" customHeight="1">
       <c r="A20" s="4" t="s">
         <v>85</v>
       </c>
@@ -3079,7 +3064,7 @@
       <c r="Y20" s="3"/>
       <c r="Z20" s="3"/>
     </row>
-    <row r="21" ht="15.0" hidden="1" customHeight="1">
+    <row r="21" ht="15.0" customHeight="1">
       <c r="A21" s="4" t="s">
         <v>89</v>
       </c>
@@ -3143,7 +3128,7 @@
       <c r="Y21" s="3"/>
       <c r="Z21" s="3"/>
     </row>
-    <row r="22" ht="15.0" hidden="1" customHeight="1">
+    <row r="22" ht="15.0" customHeight="1">
       <c r="A22" s="8" t="s">
         <v>93</v>
       </c>
@@ -3202,7 +3187,7 @@
       <c r="Y22" s="3"/>
       <c r="Z22" s="3"/>
     </row>
-    <row r="23" ht="15.0" hidden="1" customHeight="1">
+    <row r="23" ht="15.0" customHeight="1">
       <c r="A23" s="4" t="s">
         <v>96</v>
       </c>
@@ -3266,7 +3251,7 @@
       <c r="Y23" s="3"/>
       <c r="Z23" s="3"/>
     </row>
-    <row r="24" ht="15.0" hidden="1" customHeight="1">
+    <row r="24" ht="15.0" customHeight="1">
       <c r="A24" s="13" t="s">
         <v>99</v>
       </c>
@@ -3323,7 +3308,7 @@
       <c r="Y24" s="3"/>
       <c r="Z24" s="3"/>
     </row>
-    <row r="25" ht="15.0" hidden="1" customHeight="1">
+    <row r="25" ht="15.0" customHeight="1">
       <c r="A25" s="8" t="s">
         <v>103</v>
       </c>
@@ -3380,7 +3365,7 @@
       <c r="Y25" s="3"/>
       <c r="Z25" s="3"/>
     </row>
-    <row r="26" ht="15.0" hidden="1" customHeight="1">
+    <row r="26" ht="15.0" customHeight="1">
       <c r="A26" s="4" t="s">
         <v>106</v>
       </c>
@@ -3439,7 +3424,7 @@
       <c r="Y26" s="3"/>
       <c r="Z26" s="3"/>
     </row>
-    <row r="27" ht="15.0" hidden="1" customHeight="1">
+    <row r="27" ht="15.0" customHeight="1">
       <c r="A27" s="4" t="s">
         <v>109</v>
       </c>
@@ -3501,7 +3486,7 @@
       <c r="Y27" s="3"/>
       <c r="Z27" s="3"/>
     </row>
-    <row r="28" ht="15.0" hidden="1" customHeight="1">
+    <row r="28" ht="15.0" customHeight="1">
       <c r="A28" s="4" t="s">
         <v>112</v>
       </c>
@@ -3567,7 +3552,7 @@
       <c r="Y28" s="3"/>
       <c r="Z28" s="3"/>
     </row>
-    <row r="29" ht="15.0" hidden="1" customHeight="1">
+    <row r="29" ht="15.0" customHeight="1">
       <c r="A29" s="8" t="s">
         <v>115</v>
       </c>
@@ -3626,7 +3611,7 @@
       <c r="Y29" s="3"/>
       <c r="Z29" s="3"/>
     </row>
-    <row r="30" ht="15.0" hidden="1" customHeight="1">
+    <row r="30" ht="15.0" customHeight="1">
       <c r="A30" s="4" t="s">
         <v>118</v>
       </c>
@@ -3685,7 +3670,7 @@
       <c r="Y30" s="3"/>
       <c r="Z30" s="3"/>
     </row>
-    <row r="31" ht="15.0" hidden="1" customHeight="1">
+    <row r="31" ht="15.0" customHeight="1">
       <c r="A31" s="4" t="s">
         <v>121</v>
       </c>
@@ -3746,7 +3731,7 @@
       <c r="Y31" s="3"/>
       <c r="Z31" s="3"/>
     </row>
-    <row r="32" ht="15.0" hidden="1" customHeight="1">
+    <row r="32" ht="15.0" customHeight="1">
       <c r="A32" s="4" t="s">
         <v>124</v>
       </c>
@@ -3806,7 +3791,7 @@
       <c r="Y32" s="3"/>
       <c r="Z32" s="3"/>
     </row>
-    <row r="33" ht="15.0" hidden="1" customHeight="1">
+    <row r="33" ht="15.0" customHeight="1">
       <c r="A33" s="4" t="s">
         <v>126</v>
       </c>
@@ -3868,7 +3853,7 @@
       <c r="Y33" s="3"/>
       <c r="Z33" s="3"/>
     </row>
-    <row r="34" ht="15.0" hidden="1" customHeight="1">
+    <row r="34" ht="15.0" customHeight="1">
       <c r="A34" s="4" t="s">
         <v>129</v>
       </c>
@@ -3929,7 +3914,7 @@
       <c r="Y34" s="3"/>
       <c r="Z34" s="3"/>
     </row>
-    <row r="35" ht="15.0" hidden="1" customHeight="1">
+    <row r="35" ht="15.0" customHeight="1">
       <c r="A35" s="4" t="s">
         <v>132</v>
       </c>
@@ -3991,7 +3976,7 @@
       <c r="Y35" s="3"/>
       <c r="Z35" s="3"/>
     </row>
-    <row r="36" ht="15.0" hidden="1" customHeight="1">
+    <row r="36" ht="15.0" customHeight="1">
       <c r="A36" s="8" t="s">
         <v>135</v>
       </c>
@@ -4048,7 +4033,7 @@
       <c r="Y36" s="3"/>
       <c r="Z36" s="3"/>
     </row>
-    <row r="37" ht="15.0" hidden="1" customHeight="1">
+    <row r="37" ht="15.0" customHeight="1">
       <c r="A37" s="4" t="s">
         <v>138</v>
       </c>
@@ -4108,7 +4093,7 @@
       <c r="Y37" s="3"/>
       <c r="Z37" s="3"/>
     </row>
-    <row r="38" ht="15.0" hidden="1" customHeight="1">
+    <row r="38" ht="15.0" customHeight="1">
       <c r="A38" s="4" t="s">
         <v>141</v>
       </c>
@@ -4172,7 +4157,7 @@
       <c r="Y38" s="3"/>
       <c r="Z38" s="3"/>
     </row>
-    <row r="39" ht="15.0" hidden="1" customHeight="1">
+    <row r="39" ht="15.0" customHeight="1">
       <c r="A39" s="4" t="s">
         <v>145</v>
       </c>
@@ -4231,7 +4216,7 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
     </row>
-    <row r="40" ht="15.0" hidden="1" customHeight="1">
+    <row r="40" ht="15.0" customHeight="1">
       <c r="A40" s="8" t="s">
         <v>148</v>
       </c>
@@ -4290,7 +4275,7 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
     </row>
-    <row r="41" ht="15.0" hidden="1" customHeight="1">
+    <row r="41" ht="15.0" customHeight="1">
       <c r="A41" s="4" t="s">
         <v>151</v>
       </c>
@@ -4351,7 +4336,7 @@
       <c r="Y41" s="3"/>
       <c r="Z41" s="3"/>
     </row>
-    <row r="42" ht="15.0" hidden="1" customHeight="1">
+    <row r="42" ht="15.0" customHeight="1">
       <c r="A42" s="4" t="s">
         <v>154</v>
       </c>
@@ -4410,7 +4395,7 @@
       <c r="Y42" s="3"/>
       <c r="Z42" s="3"/>
     </row>
-    <row r="43" ht="15.0" hidden="1" customHeight="1">
+    <row r="43" ht="15.0" customHeight="1">
       <c r="A43" s="4" t="s">
         <v>157</v>
       </c>
@@ -4469,7 +4454,7 @@
       <c r="Y43" s="3"/>
       <c r="Z43" s="3"/>
     </row>
-    <row r="44" ht="15.0" hidden="1" customHeight="1">
+    <row r="44" ht="15.0" customHeight="1">
       <c r="A44" s="4" t="s">
         <v>160</v>
       </c>
@@ -4528,7 +4513,7 @@
       <c r="Y44" s="3"/>
       <c r="Z44" s="3"/>
     </row>
-    <row r="45" ht="15.0" hidden="1" customHeight="1">
+    <row r="45" ht="15.0" customHeight="1">
       <c r="A45" s="4" t="s">
         <v>163</v>
       </c>
@@ -4587,7 +4572,7 @@
       <c r="Y45" s="3"/>
       <c r="Z45" s="3"/>
     </row>
-    <row r="46" ht="15.0" hidden="1" customHeight="1">
+    <row r="46" ht="15.0" customHeight="1">
       <c r="A46" s="8" t="s">
         <v>166</v>
       </c>
@@ -4646,7 +4631,7 @@
       <c r="Y46" s="3"/>
       <c r="Z46" s="3"/>
     </row>
-    <row r="47" ht="15.0" hidden="1" customHeight="1">
+    <row r="47" ht="15.0" customHeight="1">
       <c r="A47" s="4" t="s">
         <v>170</v>
       </c>
@@ -4707,7 +4692,7 @@
       <c r="Y47" s="3"/>
       <c r="Z47" s="3"/>
     </row>
-    <row r="48" ht="15.0" hidden="1" customHeight="1">
+    <row r="48" ht="15.0" customHeight="1">
       <c r="A48" s="4" t="s">
         <v>173</v>
       </c>
@@ -4768,7 +4753,7 @@
       <c r="Y48" s="3"/>
       <c r="Z48" s="3"/>
     </row>
-    <row r="49" ht="15.0" hidden="1" customHeight="1">
+    <row r="49" ht="15.0" customHeight="1">
       <c r="A49" s="4" t="s">
         <v>177</v>
       </c>
@@ -4831,7 +4816,7 @@
       <c r="Y49" s="3"/>
       <c r="Z49" s="3"/>
     </row>
-    <row r="50" ht="15.0" hidden="1" customHeight="1">
+    <row r="50" ht="15.0" customHeight="1">
       <c r="A50" s="4" t="s">
         <v>180</v>
       </c>
@@ -4894,7 +4879,7 @@
       <c r="Y50" s="3"/>
       <c r="Z50" s="3"/>
     </row>
-    <row r="51" ht="15.0" hidden="1" customHeight="1">
+    <row r="51" ht="15.0" customHeight="1">
       <c r="A51" s="4" t="s">
         <v>183</v>
       </c>
@@ -4958,7 +4943,7 @@
       <c r="Y51" s="3"/>
       <c r="Z51" s="3"/>
     </row>
-    <row r="52" ht="15.0" hidden="1" customHeight="1">
+    <row r="52" ht="15.0" customHeight="1">
       <c r="A52" s="8" t="s">
         <v>186</v>
       </c>
@@ -5017,7 +5002,7 @@
       <c r="Y52" s="3"/>
       <c r="Z52" s="3"/>
     </row>
-    <row r="53" ht="15.0" hidden="1" customHeight="1">
+    <row r="53" ht="15.0" customHeight="1">
       <c r="A53" s="4" t="s">
         <v>189</v>
       </c>
@@ -5083,7 +5068,7 @@
       <c r="Y53" s="3"/>
       <c r="Z53" s="3"/>
     </row>
-    <row r="54" ht="15.0" hidden="1" customHeight="1">
+    <row r="54" ht="15.0" customHeight="1">
       <c r="A54" s="8" t="s">
         <v>192</v>
       </c>
@@ -5140,7 +5125,7 @@
       <c r="Y54" s="3"/>
       <c r="Z54" s="3"/>
     </row>
-    <row r="55" ht="15.0" hidden="1" customHeight="1">
+    <row r="55" ht="15.0" customHeight="1">
       <c r="A55" s="4" t="s">
         <v>195</v>
       </c>
@@ -5202,7 +5187,7 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
     </row>
-    <row r="56" ht="15.0" hidden="1" customHeight="1">
+    <row r="56" ht="15.0" customHeight="1">
       <c r="A56" s="8" t="s">
         <v>198</v>
       </c>
@@ -5261,7 +5246,7 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
     </row>
-    <row r="57" ht="15.0" hidden="1" customHeight="1">
+    <row r="57" ht="15.0" customHeight="1">
       <c r="A57" s="4" t="s">
         <v>201</v>
       </c>
@@ -5327,7 +5312,7 @@
       <c r="Y57" s="3"/>
       <c r="Z57" s="3"/>
     </row>
-    <row r="58" ht="15.0" hidden="1" customHeight="1">
+    <row r="58" ht="15.0" customHeight="1">
       <c r="A58" s="8" t="s">
         <v>204</v>
       </c>
@@ -5389,7 +5374,7 @@
       <c r="Y58" s="3"/>
       <c r="Z58" s="3"/>
     </row>
-    <row r="59" ht="15.0" hidden="1" customHeight="1">
+    <row r="59" ht="15.0" customHeight="1">
       <c r="A59" s="4" t="s">
         <v>208</v>
       </c>
@@ -5451,7 +5436,7 @@
       <c r="Y59" s="3"/>
       <c r="Z59" s="3"/>
     </row>
-    <row r="60" ht="15.0" hidden="1" customHeight="1">
+    <row r="60" ht="15.0" customHeight="1">
       <c r="A60" s="4" t="s">
         <v>212</v>
       </c>
@@ -5512,7 +5497,7 @@
       <c r="Y60" s="3"/>
       <c r="Z60" s="3"/>
     </row>
-    <row r="61" ht="15.0" hidden="1" customHeight="1">
+    <row r="61" ht="15.0" customHeight="1">
       <c r="A61" s="4" t="s">
         <v>216</v>
       </c>
@@ -5574,7 +5559,7 @@
       <c r="Y61" s="3"/>
       <c r="Z61" s="3"/>
     </row>
-    <row r="62" ht="15.0" hidden="1" customHeight="1">
+    <row r="62" ht="15.0" customHeight="1">
       <c r="A62" s="4" t="s">
         <v>220</v>
       </c>
@@ -5635,7 +5620,7 @@
       <c r="Y62" s="3"/>
       <c r="Z62" s="3"/>
     </row>
-    <row r="63" ht="15.0" hidden="1" customHeight="1">
+    <row r="63" ht="15.0" customHeight="1">
       <c r="A63" s="4" t="s">
         <v>223</v>
       </c>
@@ -5694,7 +5679,7 @@
       <c r="Y63" s="3"/>
       <c r="Z63" s="3"/>
     </row>
-    <row r="64" ht="15.0" hidden="1" customHeight="1">
+    <row r="64" ht="15.0" customHeight="1">
       <c r="A64" s="8" t="s">
         <v>226</v>
       </c>
@@ -5753,7 +5738,7 @@
       <c r="Y64" s="3"/>
       <c r="Z64" s="3"/>
     </row>
-    <row r="65" ht="15.0" hidden="1" customHeight="1">
+    <row r="65" ht="15.0" customHeight="1">
       <c r="A65" s="4" t="s">
         <v>229</v>
       </c>
@@ -5817,7 +5802,7 @@
       <c r="Y65" s="3"/>
       <c r="Z65" s="3"/>
     </row>
-    <row r="66" ht="15.0" hidden="1" customHeight="1">
+    <row r="66" ht="15.0" customHeight="1">
       <c r="A66" s="4" t="s">
         <v>231</v>
       </c>
@@ -5876,7 +5861,7 @@
       <c r="Y66" s="3"/>
       <c r="Z66" s="3"/>
     </row>
-    <row r="67" ht="15.0" hidden="1" customHeight="1">
+    <row r="67" ht="15.0" customHeight="1">
       <c r="A67" s="8" t="s">
         <v>234</v>
       </c>
@@ -5935,7 +5920,7 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
     </row>
-    <row r="68" ht="15.0" hidden="1" customHeight="1">
+    <row r="68" ht="15.0" customHeight="1">
       <c r="A68" s="4" t="s">
         <v>237</v>
       </c>
@@ -5997,7 +5982,7 @@
       <c r="Y68" s="3"/>
       <c r="Z68" s="3"/>
     </row>
-    <row r="69" ht="15.0" hidden="1" customHeight="1">
+    <row r="69" ht="15.0" customHeight="1">
       <c r="A69" s="4" t="s">
         <v>240</v>
       </c>
@@ -6062,7 +6047,7 @@
       <c r="Y69" s="3"/>
       <c r="Z69" s="3"/>
     </row>
-    <row r="70" ht="15.0" hidden="1" customHeight="1">
+    <row r="70" ht="15.0" customHeight="1">
       <c r="A70" s="4" t="s">
         <v>243</v>
       </c>
@@ -6165,7 +6150,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P71" s="3"/>
+      <c r="P71" s="14" t="s">
+        <v>21</v>
+      </c>
       <c r="Q71" s="3" t="s">
         <v>248</v>
       </c>
@@ -6181,7 +6168,7 @@
       <c r="Y71" s="3"/>
       <c r="Z71" s="3"/>
     </row>
-    <row r="72" ht="15.0" hidden="1" customHeight="1">
+    <row r="72" ht="15.0" customHeight="1">
       <c r="A72" s="4" t="s">
         <v>250</v>
       </c>
@@ -6245,7 +6232,7 @@
       <c r="Y72" s="3"/>
       <c r="Z72" s="3"/>
     </row>
-    <row r="73" ht="15.0" hidden="1" customHeight="1">
+    <row r="73" ht="15.0" customHeight="1">
       <c r="A73" s="4" t="s">
         <v>254</v>
       </c>
@@ -6314,7 +6301,7 @@
       <c r="Y73" s="3"/>
       <c r="Z73" s="3"/>
     </row>
-    <row r="74" ht="15.0" hidden="1" customHeight="1">
+    <row r="74" ht="15.0" customHeight="1">
       <c r="A74" s="4" t="s">
         <v>257</v>
       </c>
@@ -6378,7 +6365,7 @@
       <c r="Y74" s="3"/>
       <c r="Z74" s="3"/>
     </row>
-    <row r="75" ht="15.0" hidden="1" customHeight="1">
+    <row r="75" ht="15.0" customHeight="1">
       <c r="A75" s="4" t="s">
         <v>261</v>
       </c>
@@ -6441,7 +6428,7 @@
       <c r="Y75" s="3"/>
       <c r="Z75" s="3"/>
     </row>
-    <row r="76" ht="15.0" hidden="1" customHeight="1">
+    <row r="76" ht="15.0" customHeight="1">
       <c r="A76" s="4" t="s">
         <v>264</v>
       </c>
@@ -6503,7 +6490,7 @@
       <c r="Y76" s="3"/>
       <c r="Z76" s="3"/>
     </row>
-    <row r="77" ht="15.0" hidden="1" customHeight="1">
+    <row r="77" ht="15.0" customHeight="1">
       <c r="A77" s="4" t="s">
         <v>266</v>
       </c>
@@ -6562,7 +6549,7 @@
       <c r="Y77" s="3"/>
       <c r="Z77" s="3"/>
     </row>
-    <row r="78" ht="15.0" hidden="1" customHeight="1">
+    <row r="78" ht="15.0" customHeight="1">
       <c r="A78" s="4" t="s">
         <v>269</v>
       </c>
@@ -6623,7 +6610,7 @@
       <c r="Y78" s="3"/>
       <c r="Z78" s="3"/>
     </row>
-    <row r="79" ht="15.0" hidden="1" customHeight="1">
+    <row r="79" ht="15.0" customHeight="1">
       <c r="A79" s="4" t="s">
         <v>272</v>
       </c>
@@ -6687,7 +6674,7 @@
       <c r="Y79" s="3"/>
       <c r="Z79" s="3"/>
     </row>
-    <row r="80" ht="15.0" hidden="1" customHeight="1">
+    <row r="80" ht="15.0" customHeight="1">
       <c r="A80" s="4" t="s">
         <v>275</v>
       </c>
@@ -6751,7 +6738,7 @@
       <c r="Y80" s="3"/>
       <c r="Z80" s="3"/>
     </row>
-    <row r="81" ht="15.0" hidden="1" customHeight="1">
+    <row r="81" ht="15.0" customHeight="1">
       <c r="A81" s="4" t="s">
         <v>278</v>
       </c>
@@ -6815,7 +6802,7 @@
       <c r="Y81" s="3"/>
       <c r="Z81" s="3"/>
     </row>
-    <row r="82" ht="15.0" hidden="1" customHeight="1">
+    <row r="82" ht="15.0" customHeight="1">
       <c r="A82" s="4" t="s">
         <v>282</v>
       </c>
@@ -6877,7 +6864,7 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
     </row>
-    <row r="83" ht="15.0" hidden="1" customHeight="1">
+    <row r="83" ht="15.0" customHeight="1">
       <c r="A83" s="4" t="s">
         <v>285</v>
       </c>
@@ -6941,7 +6928,7 @@
       <c r="Y83" s="3"/>
       <c r="Z83" s="3"/>
     </row>
-    <row r="84" ht="15.0" hidden="1" customHeight="1">
+    <row r="84" ht="15.0" customHeight="1">
       <c r="A84" s="4" t="s">
         <v>288</v>
       </c>
@@ -7001,7 +6988,7 @@
       <c r="Y84" s="3"/>
       <c r="Z84" s="3"/>
     </row>
-    <row r="85" ht="15.0" hidden="1" customHeight="1">
+    <row r="85" ht="15.0" customHeight="1">
       <c r="A85" s="4" t="s">
         <v>290</v>
       </c>
@@ -7064,7 +7051,7 @@
       <c r="Y85" s="3"/>
       <c r="Z85" s="3"/>
     </row>
-    <row r="86" ht="15.0" hidden="1" customHeight="1">
+    <row r="86" ht="15.0" customHeight="1">
       <c r="A86" s="8" t="s">
         <v>293</v>
       </c>
@@ -7123,7 +7110,7 @@
       <c r="Y86" s="3"/>
       <c r="Z86" s="3"/>
     </row>
-    <row r="87" ht="15.0" hidden="1" customHeight="1">
+    <row r="87" ht="15.0" customHeight="1">
       <c r="A87" s="4" t="s">
         <v>296</v>
       </c>
@@ -7187,7 +7174,7 @@
       <c r="Y87" s="3"/>
       <c r="Z87" s="3"/>
     </row>
-    <row r="88" ht="15.0" hidden="1" customHeight="1">
+    <row r="88" ht="15.0" customHeight="1">
       <c r="A88" s="8" t="s">
         <v>298</v>
       </c>
@@ -7246,7 +7233,7 @@
       <c r="Y88" s="3"/>
       <c r="Z88" s="3"/>
     </row>
-    <row r="89" ht="15.0" hidden="1" customHeight="1">
+    <row r="89" ht="15.0" customHeight="1">
       <c r="A89" s="4" t="s">
         <v>301</v>
       </c>
@@ -7309,7 +7296,7 @@
       <c r="Y89" s="3"/>
       <c r="Z89" s="3"/>
     </row>
-    <row r="90" ht="15.0" hidden="1" customHeight="1">
+    <row r="90" ht="15.0" customHeight="1">
       <c r="A90" s="4" t="s">
         <v>304</v>
       </c>
@@ -7373,7 +7360,7 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
     </row>
-    <row r="91" ht="15.0" hidden="1" customHeight="1">
+    <row r="91" ht="15.0" customHeight="1">
       <c r="A91" s="4" t="s">
         <v>307</v>
       </c>
@@ -7436,7 +7423,7 @@
       <c r="Y91" s="3"/>
       <c r="Z91" s="3"/>
     </row>
-    <row r="92" ht="15.0" hidden="1" customHeight="1">
+    <row r="92" ht="15.0" customHeight="1">
       <c r="A92" s="4" t="s">
         <v>310</v>
       </c>
@@ -7497,7 +7484,7 @@
       <c r="Y92" s="3"/>
       <c r="Z92" s="3"/>
     </row>
-    <row r="93" ht="15.0" hidden="1" customHeight="1">
+    <row r="93" ht="15.0" customHeight="1">
       <c r="A93" s="8" t="s">
         <v>313</v>
       </c>
@@ -7556,7 +7543,7 @@
       <c r="Y93" s="3"/>
       <c r="Z93" s="3"/>
     </row>
-    <row r="94" ht="15.0" hidden="1" customHeight="1">
+    <row r="94" ht="15.0" customHeight="1">
       <c r="A94" s="4" t="s">
         <v>316</v>
       </c>
@@ -7618,7 +7605,7 @@
       <c r="Y94" s="3"/>
       <c r="Z94" s="3"/>
     </row>
-    <row r="95" ht="15.0" hidden="1" customHeight="1">
+    <row r="95" ht="15.0" customHeight="1">
       <c r="A95" s="4" t="s">
         <v>319</v>
       </c>
@@ -7678,7 +7665,7 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
     </row>
-    <row r="96" ht="15.0" hidden="1" customHeight="1">
+    <row r="96" ht="15.0" customHeight="1">
       <c r="A96" s="4" t="s">
         <v>322</v>
       </c>
@@ -7742,7 +7729,7 @@
       <c r="Y96" s="3"/>
       <c r="Z96" s="3"/>
     </row>
-    <row r="97" ht="15.0" hidden="1" customHeight="1">
+    <row r="97" ht="15.0" customHeight="1">
       <c r="A97" s="4" t="s">
         <v>325</v>
       </c>
@@ -7803,7 +7790,7 @@
       <c r="Y97" s="3"/>
       <c r="Z97" s="3"/>
     </row>
-    <row r="98" ht="15.0" hidden="1" customHeight="1">
+    <row r="98" ht="15.0" customHeight="1">
       <c r="A98" s="4" t="s">
         <v>329</v>
       </c>
@@ -7864,7 +7851,7 @@
       <c r="Y98" s="3"/>
       <c r="Z98" s="3"/>
     </row>
-    <row r="99" ht="15.0" hidden="1" customHeight="1">
+    <row r="99" ht="15.0" customHeight="1">
       <c r="A99" s="4" t="s">
         <v>332</v>
       </c>
@@ -7925,7 +7912,7 @@
       <c r="Y99" s="3"/>
       <c r="Z99" s="3"/>
     </row>
-    <row r="100" ht="15.0" hidden="1" customHeight="1">
+    <row r="100" ht="15.0" customHeight="1">
       <c r="A100" s="4" t="s">
         <v>335</v>
       </c>
@@ -7987,7 +7974,7 @@
       <c r="Y100" s="3"/>
       <c r="Z100" s="3"/>
     </row>
-    <row r="101" ht="15.0" hidden="1" customHeight="1">
+    <row r="101" ht="15.0" customHeight="1">
       <c r="A101" s="8" t="s">
         <v>338</v>
       </c>
@@ -8046,7 +8033,7 @@
       <c r="Y101" s="3"/>
       <c r="Z101" s="3"/>
     </row>
-    <row r="102" ht="15.0" hidden="1" customHeight="1">
+    <row r="102" ht="15.0" customHeight="1">
       <c r="A102" s="4" t="s">
         <v>341</v>
       </c>
@@ -8106,7 +8093,7 @@
       <c r="Y102" s="3"/>
       <c r="Z102" s="3"/>
     </row>
-    <row r="103" ht="15.0" hidden="1" customHeight="1">
+    <row r="103" ht="15.0" customHeight="1">
       <c r="A103" s="4" t="s">
         <v>344</v>
       </c>
@@ -8166,7 +8153,7 @@
       <c r="Y103" s="3"/>
       <c r="Z103" s="3"/>
     </row>
-    <row r="104" ht="15.0" hidden="1" customHeight="1">
+    <row r="104" ht="15.0" customHeight="1">
       <c r="A104" s="4" t="s">
         <v>347</v>
       </c>
@@ -8230,7 +8217,7 @@
       <c r="Y104" s="3"/>
       <c r="Z104" s="3"/>
     </row>
-    <row r="105" ht="15.0" hidden="1" customHeight="1">
+    <row r="105" ht="15.0" customHeight="1">
       <c r="A105" s="4" t="s">
         <v>351</v>
       </c>
@@ -8290,7 +8277,7 @@
       <c r="Y105" s="3"/>
       <c r="Z105" s="3"/>
     </row>
-    <row r="106" ht="15.0" hidden="1" customHeight="1">
+    <row r="106" ht="15.0" customHeight="1">
       <c r="A106" s="4" t="s">
         <v>354</v>
       </c>
@@ -8350,7 +8337,7 @@
       <c r="Y106" s="3"/>
       <c r="Z106" s="3"/>
     </row>
-    <row r="107" ht="15.0" hidden="1" customHeight="1">
+    <row r="107" ht="15.0" customHeight="1">
       <c r="A107" s="4" t="s">
         <v>357</v>
       </c>
@@ -8414,7 +8401,7 @@
       <c r="Y107" s="3"/>
       <c r="Z107" s="3"/>
     </row>
-    <row r="108" ht="15.0" hidden="1" customHeight="1">
+    <row r="108" ht="15.0" customHeight="1">
       <c r="A108" s="4" t="s">
         <v>360</v>
       </c>
@@ -8477,7 +8464,7 @@
       <c r="Y108" s="3"/>
       <c r="Z108" s="3"/>
     </row>
-    <row r="109" ht="15.0" hidden="1" customHeight="1">
+    <row r="109" ht="15.0" customHeight="1">
       <c r="A109" s="4" t="s">
         <v>362</v>
       </c>
@@ -8536,7 +8523,7 @@
       <c r="Y109" s="3"/>
       <c r="Z109" s="3"/>
     </row>
-    <row r="110" ht="15.0" hidden="1" customHeight="1">
+    <row r="110" ht="15.0" customHeight="1">
       <c r="A110" s="4" t="s">
         <v>365</v>
       </c>
@@ -8601,7 +8588,7 @@
       <c r="Y110" s="3"/>
       <c r="Z110" s="3"/>
     </row>
-    <row r="111" ht="15.0" hidden="1" customHeight="1">
+    <row r="111" ht="15.0" customHeight="1">
       <c r="A111" s="4" t="s">
         <v>369</v>
       </c>
@@ -8662,7 +8649,7 @@
       <c r="Y111" s="3"/>
       <c r="Z111" s="3"/>
     </row>
-    <row r="112" ht="15.0" hidden="1" customHeight="1">
+    <row r="112" ht="15.0" customHeight="1">
       <c r="A112" s="4" t="s">
         <v>372</v>
       </c>
@@ -8724,7 +8711,7 @@
       <c r="Y112" s="3"/>
       <c r="Z112" s="3"/>
     </row>
-    <row r="113" ht="15.0" hidden="1" customHeight="1">
+    <row r="113" ht="15.0" customHeight="1">
       <c r="A113" s="4" t="s">
         <v>375</v>
       </c>
@@ -8788,7 +8775,7 @@
       <c r="Y113" s="3"/>
       <c r="Z113" s="3"/>
     </row>
-    <row r="114" ht="15.0" hidden="1" customHeight="1">
+    <row r="114" ht="15.0" customHeight="1">
       <c r="A114" s="8" t="s">
         <v>378</v>
       </c>
@@ -8845,7 +8832,7 @@
       <c r="Y114" s="3"/>
       <c r="Z114" s="3"/>
     </row>
-    <row r="115" ht="15.0" hidden="1" customHeight="1">
+    <row r="115" ht="15.0" customHeight="1">
       <c r="A115" s="4" t="s">
         <v>381</v>
       </c>
@@ -8948,7 +8935,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P116" s="3"/>
+      <c r="P116" s="14" t="s">
+        <v>21</v>
+      </c>
       <c r="Q116" s="3" t="s">
         <v>387</v>
       </c>
@@ -8964,7 +8953,7 @@
       <c r="Y116" s="3"/>
       <c r="Z116" s="3"/>
     </row>
-    <row r="117" ht="15.0" hidden="1" customHeight="1">
+    <row r="117" ht="15.0" customHeight="1">
       <c r="A117" s="4" t="s">
         <v>389</v>
       </c>
@@ -9024,7 +9013,7 @@
       <c r="Y117" s="3"/>
       <c r="Z117" s="3"/>
     </row>
-    <row r="118" ht="15.0" hidden="1" customHeight="1">
+    <row r="118" ht="15.0" customHeight="1">
       <c r="A118" s="4" t="s">
         <v>392</v>
       </c>
@@ -9086,7 +9075,7 @@
       <c r="Y118" s="3"/>
       <c r="Z118" s="3"/>
     </row>
-    <row r="119" ht="15.0" hidden="1" customHeight="1">
+    <row r="119" ht="15.0" customHeight="1">
       <c r="A119" s="4" t="s">
         <v>395</v>
       </c>
@@ -9150,7 +9139,7 @@
       <c r="Y119" s="3"/>
       <c r="Z119" s="3"/>
     </row>
-    <row r="120" ht="15.0" hidden="1" customHeight="1">
+    <row r="120" ht="15.0" customHeight="1">
       <c r="A120" s="4" t="s">
         <v>398</v>
       </c>
@@ -9212,7 +9201,7 @@
       <c r="Y120" s="3"/>
       <c r="Z120" s="3"/>
     </row>
-    <row r="121" ht="15.0" hidden="1" customHeight="1">
+    <row r="121" ht="15.0" customHeight="1">
       <c r="A121" s="8" t="s">
         <v>401</v>
       </c>
@@ -9274,7 +9263,7 @@
       <c r="Y121" s="3"/>
       <c r="Z121" s="3"/>
     </row>
-    <row r="122" ht="15.0" hidden="1" customHeight="1">
+    <row r="122" ht="15.0" customHeight="1">
       <c r="A122" s="4" t="s">
         <v>404</v>
       </c>
@@ -9336,7 +9325,7 @@
       <c r="Y122" s="3"/>
       <c r="Z122" s="3"/>
     </row>
-    <row r="123" ht="15.0" hidden="1" customHeight="1">
+    <row r="123" ht="15.0" customHeight="1">
       <c r="A123" s="4" t="s">
         <v>407</v>
       </c>
@@ -9398,7 +9387,7 @@
       <c r="Y123" s="3"/>
       <c r="Z123" s="3"/>
     </row>
-    <row r="124" ht="15.0" hidden="1" customHeight="1">
+    <row r="124" ht="15.0" customHeight="1">
       <c r="A124" s="4" t="s">
         <v>410</v>
       </c>
@@ -9462,7 +9451,7 @@
       <c r="Y124" s="3"/>
       <c r="Z124" s="3"/>
     </row>
-    <row r="125" ht="15.0" hidden="1" customHeight="1">
+    <row r="125" ht="15.0" customHeight="1">
       <c r="A125" s="4" t="s">
         <v>413</v>
       </c>
@@ -9521,7 +9510,7 @@
       <c r="Y125" s="3"/>
       <c r="Z125" s="3"/>
     </row>
-    <row r="126" ht="15.0" hidden="1" customHeight="1">
+    <row r="126" ht="15.0" customHeight="1">
       <c r="A126" s="4" t="s">
         <v>416</v>
       </c>
@@ -9583,7 +9572,7 @@
       <c r="Y126" s="3"/>
       <c r="Z126" s="3"/>
     </row>
-    <row r="127" ht="15.0" hidden="1" customHeight="1">
+    <row r="127" ht="15.0" customHeight="1">
       <c r="A127" s="4" t="s">
         <v>419</v>
       </c>
@@ -9645,7 +9634,7 @@
       <c r="Y127" s="3"/>
       <c r="Z127" s="3"/>
     </row>
-    <row r="128" ht="15.0" hidden="1" customHeight="1">
+    <row r="128" ht="15.0" customHeight="1">
       <c r="A128" s="4" t="s">
         <v>422</v>
       </c>
@@ -9709,7 +9698,7 @@
       <c r="Y128" s="3"/>
       <c r="Z128" s="3"/>
     </row>
-    <row r="129" ht="15.0" hidden="1" customHeight="1">
+    <row r="129" ht="15.0" customHeight="1">
       <c r="A129" s="4" t="s">
         <v>425</v>
       </c>
@@ -9768,7 +9757,7 @@
       <c r="Y129" s="3"/>
       <c r="Z129" s="3"/>
     </row>
-    <row r="130" ht="15.0" hidden="1" customHeight="1">
+    <row r="130" ht="15.0" customHeight="1">
       <c r="A130" s="4" t="s">
         <v>428</v>
       </c>
@@ -9832,7 +9821,7 @@
       <c r="Y130" s="3"/>
       <c r="Z130" s="3"/>
     </row>
-    <row r="131" ht="15.0" hidden="1" customHeight="1">
+    <row r="131" ht="15.0" customHeight="1">
       <c r="A131" s="8" t="s">
         <v>431</v>
       </c>
@@ -9894,7 +9883,7 @@
       <c r="Y131" s="3"/>
       <c r="Z131" s="3"/>
     </row>
-    <row r="132" ht="15.0" hidden="1" customHeight="1">
+    <row r="132" ht="15.0" customHeight="1">
       <c r="A132" s="4" t="s">
         <v>435</v>
       </c>
@@ -9957,7 +9946,7 @@
       <c r="Y132" s="3"/>
       <c r="Z132" s="3"/>
     </row>
-    <row r="133" ht="15.0" hidden="1" customHeight="1">
+    <row r="133" ht="15.0" customHeight="1">
       <c r="A133" s="4" t="s">
         <v>439</v>
       </c>
@@ -10021,7 +10010,7 @@
       <c r="Y133" s="3"/>
       <c r="Z133" s="3"/>
     </row>
-    <row r="134" ht="15.0" hidden="1" customHeight="1">
+    <row r="134" ht="15.0" customHeight="1">
       <c r="A134" s="4" t="s">
         <v>442</v>
       </c>
@@ -10085,7 +10074,7 @@
       <c r="Y134" s="3"/>
       <c r="Z134" s="3"/>
     </row>
-    <row r="135" ht="15.0" hidden="1" customHeight="1">
+    <row r="135" ht="15.0" customHeight="1">
       <c r="A135" s="4" t="s">
         <v>445</v>
       </c>
@@ -10144,7 +10133,7 @@
       <c r="Y135" s="3"/>
       <c r="Z135" s="3"/>
     </row>
-    <row r="136" ht="15.0" hidden="1" customHeight="1">
+    <row r="136" ht="15.0" customHeight="1">
       <c r="A136" s="8" t="s">
         <v>448</v>
       </c>
@@ -10203,7 +10192,7 @@
       <c r="Y136" s="3"/>
       <c r="Z136" s="3"/>
     </row>
-    <row r="137" ht="15.0" hidden="1" customHeight="1">
+    <row r="137" ht="15.0" customHeight="1">
       <c r="A137" s="8" t="s">
         <v>451</v>
       </c>
@@ -10262,7 +10251,7 @@
       <c r="Y137" s="3"/>
       <c r="Z137" s="3"/>
     </row>
-    <row r="138" ht="15.0" hidden="1" customHeight="1">
+    <row r="138" ht="15.0" customHeight="1">
       <c r="A138" s="4" t="s">
         <v>454</v>
       </c>
@@ -10323,7 +10312,7 @@
       <c r="Y138" s="3"/>
       <c r="Z138" s="3"/>
     </row>
-    <row r="139" ht="15.0" hidden="1" customHeight="1">
+    <row r="139" ht="15.0" customHeight="1">
       <c r="A139" s="4" t="s">
         <v>457</v>
       </c>
@@ -10386,7 +10375,7 @@
       <c r="Y139" s="3"/>
       <c r="Z139" s="3"/>
     </row>
-    <row r="140" ht="15.0" hidden="1" customHeight="1">
+    <row r="140" ht="15.0" customHeight="1">
       <c r="A140" s="4" t="s">
         <v>460</v>
       </c>
@@ -10446,7 +10435,7 @@
       <c r="Y140" s="3"/>
       <c r="Z140" s="3"/>
     </row>
-    <row r="141" ht="15.0" hidden="1" customHeight="1">
+    <row r="141" ht="15.0" customHeight="1">
       <c r="A141" s="4" t="s">
         <v>462</v>
       </c>
@@ -10505,7 +10494,7 @@
       <c r="Y141" s="3"/>
       <c r="Z141" s="3"/>
     </row>
-    <row r="142" ht="15.0" hidden="1" customHeight="1">
+    <row r="142" ht="15.0" customHeight="1">
       <c r="A142" s="13" t="s">
         <v>464</v>
       </c>
@@ -10566,7 +10555,7 @@
       <c r="Y142" s="3"/>
       <c r="Z142" s="3"/>
     </row>
-    <row r="143" ht="15.0" hidden="1" customHeight="1">
+    <row r="143" ht="15.0" customHeight="1">
       <c r="A143" s="4" t="s">
         <v>466</v>
       </c>
@@ -10634,7 +10623,7 @@
       <c r="Y143" s="3"/>
       <c r="Z143" s="3"/>
     </row>
-    <row r="144" ht="15.0" hidden="1" customHeight="1">
+    <row r="144" ht="15.0" customHeight="1">
       <c r="A144" s="8" t="s">
         <v>470</v>
       </c>
@@ -10691,7 +10680,7 @@
       <c r="Y144" s="3"/>
       <c r="Z144" s="3"/>
     </row>
-    <row r="145" ht="15.0" hidden="1" customHeight="1">
+    <row r="145" ht="15.0" customHeight="1">
       <c r="A145" s="8" t="s">
         <v>473</v>
       </c>
@@ -34689,16 +34678,9 @@
       <c r="Z1000" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$R$145">
-    <filterColumn colId="15">
-      <filters blank="1"/>
-    </filterColumn>
-    <filterColumn colId="14">
-      <colorFilter cellColor="0" dxfId="1"/>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="$A$1:$R$145"/>
   <conditionalFormatting sqref="N2:O145">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
